--- a/Data_out/DGE_summary_table.xlsx
+++ b/Data_out/DGE_summary_table.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chriskreitzer/Documents/GitHub/Twist/Data_out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3CE453-784C-824E-96AC-310DD7D5FC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B38251-E32B-944C-8548-826429115C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="2540" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{6BF150CC-AA25-6648-80A9-940775FAFEA5}"/>
+    <workbookView xWindow="360" yWindow="1440" windowWidth="28860" windowHeight="18600" activeTab="3" xr2:uid="{6BF150CC-AA25-6648-80A9-940775FAFEA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary_Table" sheetId="6" r:id="rId1"/>
     <sheet name="TwiHead_WTHead" sheetId="1" r:id="rId2"/>
-    <sheet name="Twi4d_WT4d" sheetId="2" r:id="rId3"/>
-    <sheet name="Bubble_TwiHead" sheetId="3" r:id="rId4"/>
-    <sheet name="Bubble_WTHead" sheetId="4" r:id="rId5"/>
+    <sheet name="Bubble_TwiHead" sheetId="3" r:id="rId3"/>
+    <sheet name="Bubble_WTHead" sheetId="4" r:id="rId4"/>
+    <sheet name="Twi4d_WT4d" sheetId="2" r:id="rId5"/>
     <sheet name="TwistMutants_WT" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="206">
   <si>
     <t>TwiHead VS Wthead</t>
   </si>
@@ -297,13 +297,373 @@
   </si>
   <si>
     <t>Note: TwistMutants contain all the DESeq info for Bubble, Twi4d, TwiHead AND the comparison was made against WT animals (WT4d and WTHead)</t>
+  </si>
+  <si>
+    <t>Log2FC</t>
+  </si>
+  <si>
+    <t>NV2.11132-NVE10555</t>
+  </si>
+  <si>
+    <t>negative regulation of epithelial cell proliferation</t>
+  </si>
+  <si>
+    <t>narr_OG_desc</t>
+  </si>
+  <si>
+    <t>ID-match</t>
+  </si>
+  <si>
+    <t>NV2.11138-NVE10559</t>
+  </si>
+  <si>
+    <t>sequence-specific DNA binding</t>
+  </si>
+  <si>
+    <t>transcription regulator activity</t>
+  </si>
+  <si>
+    <t>﻿NV2.14759-NVE95</t>
+  </si>
+  <si>
+    <t>NV2.16623-NVE2922</t>
+  </si>
+  <si>
+    <t>spleen development</t>
+  </si>
+  <si>
+    <t>﻿NV2.18482-NVE2102</t>
+  </si>
+  <si>
+    <t>DNA binding</t>
+  </si>
+  <si>
+    <t>post-anal tail morphogenesis</t>
+  </si>
+  <si>
+    <t>﻿NV2.10909-NVE19753</t>
+  </si>
+  <si>
+    <t>embryonic olfactory bulb interneuron precursor migration</t>
+  </si>
+  <si>
+    <t>NV2.21183-NVE15354,NVE20053</t>
+  </si>
+  <si>
+    <t>NV2.222-NVE2490,NVE6487</t>
+  </si>
+  <si>
+    <t>NV2.22323-NVE613</t>
+  </si>
+  <si>
+    <t>Homeodomain</t>
+  </si>
+  <si>
+    <t>NV2.230-NVE2483,NVE2486</t>
+  </si>
+  <si>
+    <t>subthalamic nucleus development</t>
+  </si>
+  <si>
+    <t>NV2.3378-NVE8119</t>
+  </si>
+  <si>
+    <t>NV2.3592-NVE1799</t>
+  </si>
+  <si>
+    <t>metal ion binding</t>
+  </si>
+  <si>
+    <t>NV2.4384-NVE8762</t>
+  </si>
+  <si>
+    <t>homophilic cell adhesion via plasma membrane adhesion molecules</t>
+  </si>
+  <si>
+    <t>NV2.24286-NVE15639,NVE15640,NVE20704</t>
+  </si>
+  <si>
+    <t>NV2.24285-NVE15638,NVE20705,NVE20706</t>
+  </si>
+  <si>
+    <t>neurogenic locus notch homolog protein</t>
+  </si>
+  <si>
+    <t>Wnt inhibitory factor 1</t>
+  </si>
+  <si>
+    <t>NV2.14602-NA</t>
+  </si>
+  <si>
+    <t>NV2.24695-NVE7015,NVE7018,NVE7019</t>
+  </si>
+  <si>
+    <t>NOTCH2 protein [Salpingoeca rosetta]</t>
+  </si>
+  <si>
+    <t>NV2.6444-NVE18242,NVE9376</t>
+  </si>
+  <si>
+    <t>EGF-like repeat and discoidin I-like domain-containing protein</t>
+  </si>
+  <si>
+    <t>NV2.20560-NVE22390</t>
+  </si>
+  <si>
+    <t>Matrilin-3;von Willebrand factor (vWF) type A domain</t>
+  </si>
+  <si>
+    <t>NV2.12024-NVE21288</t>
+  </si>
+  <si>
+    <t>Dickkopf N-terminal cysteine-rich region</t>
+  </si>
+  <si>
+    <t>Wnt inhibitory factor 1;Notch ligand involved in the mediation of Notch signaling (By similarity);EGF domain</t>
+  </si>
+  <si>
+    <t>NV2.23407-NVE12095</t>
+  </si>
+  <si>
+    <t>frizzled binding</t>
+  </si>
+  <si>
+    <t>frizzled binding;Protein Wnt-4 [Crassostrea gigas]</t>
+  </si>
+  <si>
+    <t>NV2.2707-NVE24194,NVE24195</t>
+  </si>
+  <si>
+    <t>Ligand for members of the frizzled family of seven transmembrane receptors</t>
+  </si>
+  <si>
+    <t>NV2.12225-NVE12960</t>
+  </si>
+  <si>
+    <t>Protein Wnt-1;midbrain-hindbrain boundary maturation</t>
+  </si>
+  <si>
+    <t>NV2.16522-NVE3012</t>
+  </si>
+  <si>
+    <t>cell adhesion;Muscle, skeletal receptor tyrosine protein kinase;</t>
+  </si>
+  <si>
+    <t>NV2.11139-NVE10559</t>
+  </si>
+  <si>
+    <t>K02A2.6-like;Homeobox protein XENK-2;</t>
+  </si>
+  <si>
+    <t>NV2.11140-NVE10560</t>
+  </si>
+  <si>
+    <t>DNA binding;homeobox protein nk-2 [Aedes aegypti]</t>
+  </si>
+  <si>
+    <t>NV2.11935-NVE21231,NVE2662</t>
+  </si>
+  <si>
+    <t>sequence-specific DNA binding;homeobox protein HMX3 [Gallus gallus]</t>
+  </si>
+  <si>
+    <t>NV2.14759-NVE95</t>
+  </si>
+  <si>
+    <t>transcription regulator activity;Sterile alpha motif domain-containing protein 11</t>
+  </si>
+  <si>
+    <t>NV2.15249-NVE17532</t>
+  </si>
+  <si>
+    <t>zf-C2H2,zf-BED;Zkscan2 protein [Rattus norvegicus]</t>
+  </si>
+  <si>
+    <t>spleen development;brain-specific homeobox [Saccoglossus kowalevskii]</t>
+  </si>
+  <si>
+    <t>NV2.16644-NVE2902</t>
+  </si>
+  <si>
+    <t>acetylserotonin O-methyltransferase activity;hydroxyindole O-methyltransferase [Capra hircus]</t>
+  </si>
+  <si>
+    <t>NV2.18482-NVE2102</t>
+  </si>
+  <si>
+    <t>DNA binding; transcription factor SoxB2 [Strongylocentrotus droebachiensis]</t>
+  </si>
+  <si>
+    <t>NV2.1886-NVE20467</t>
+  </si>
+  <si>
+    <t>protein dimerization activity; Myc-type, basic helix-loop-helix (bHLH) domain-containing protein 2 [Strongyloides ratti]</t>
+  </si>
+  <si>
+    <t>NV2.20035-NVE6876</t>
+  </si>
+  <si>
+    <t>pyramidal neuron migration;brain factor 1 [Saccoglossus kowalevskii]</t>
+  </si>
+  <si>
+    <t>NV2.10909-NVE19753</t>
+  </si>
+  <si>
+    <t>post-anal tail morphogenesis;Sp5 transcription factor [Xenopus (Silurana) tropicalis]</t>
+  </si>
+  <si>
+    <t>NV2.12940-NVE10742</t>
+  </si>
+  <si>
+    <t>homeobox;Homeobox protein MOX-1 {ECO:0000250|UniProtKB:P50221}</t>
+  </si>
+  <si>
+    <t>NV2.12942-NVE10743</t>
+  </si>
+  <si>
+    <t>sequence-specific DNA binding;MEOX2 [Homo sapiens]</t>
+  </si>
+  <si>
+    <t>NV2.13053-NVE15698,NVE17475</t>
+  </si>
+  <si>
+    <t>sequence-specific DNA binding;daf-16-1 protein 1 [Bursaphelenchus xylophilus]</t>
+  </si>
+  <si>
+    <t>NV2.13634-NVE23585</t>
+  </si>
+  <si>
+    <t>heat shock factor;DNA binding transcription factor [Pseudozyma hubeiensis SY62]</t>
+  </si>
+  <si>
+    <t>NV2.13703-NVE23539</t>
+  </si>
+  <si>
+    <t>nuclear-transcribed mRNA catabolic process, no-go decay;Cold shock domain-containing protein E1 [Crassostrea gigas]</t>
+  </si>
+  <si>
+    <t>NV2.1415-NVE17353,NVE17354</t>
+  </si>
+  <si>
+    <t>Transcription factor;transcription factor E2F3, putative [Pediculus humanus corporis]</t>
+  </si>
+  <si>
+    <t>NV2.18503-NVE2121</t>
+  </si>
+  <si>
+    <t>regulation of homologous chromosome segregation;HORMA domain-containing protein 1 [Zootermopsis nevadensis]</t>
+  </si>
+  <si>
+    <t>NV2.18886-NVE21006</t>
+  </si>
+  <si>
+    <t>nucleic acid binding;Zinc finger protein 358</t>
+  </si>
+  <si>
+    <t>NV2.19172-NVE3409</t>
+  </si>
+  <si>
+    <t>SRY (sex determining region Y)-box 30;Transcription factor SOX-30</t>
+  </si>
+  <si>
+    <t>Homeodomain;Aristaless [Euperipatoides kanangrensis]</t>
+  </si>
+  <si>
+    <t>NV2.25639-NVE9292</t>
+  </si>
+  <si>
+    <t>NA;</t>
+  </si>
+  <si>
+    <t>NV2.2751-NVE6580</t>
+  </si>
+  <si>
+    <t>high mobility group;HMGBb [Litopenaeus vannamei]</t>
+  </si>
+  <si>
+    <t>NV2.6611-NVE5998</t>
+  </si>
+  <si>
+    <t>protein dimerization activity; TPA: basic helix-loop-helix protein Adi-amber [Acropora digitifera]</t>
+  </si>
+  <si>
+    <t>NV2.20124-NVE6946</t>
+  </si>
+  <si>
+    <t>homophilic cell adhesion via plasma membrane adhesion molecules;Fibropellin-1 [Crassostrea gigas]</t>
+  </si>
+  <si>
+    <t>von Willebrand factor (vWF) type A domain;Matrilin-3;</t>
+  </si>
+  <si>
+    <t>neurogenic locus notch homolog protein;neurogenic locus notch homolog protein 1 [Gallus gallus]</t>
+  </si>
+  <si>
+    <t>Dickkopf N-terminal cysteine-rich region;Dickkopf-related protein 3 [Dicentrarchus labrax]</t>
+  </si>
+  <si>
+    <t>midbrain-hindbrain boundary maturation;wnt1 [Takifugu rubripes]</t>
+  </si>
+  <si>
+    <t>NV2.12463-NVE17595</t>
+  </si>
+  <si>
+    <t>frizzled binding;protein Wnt-3a isoform 1 precursor [Gallus gallus]</t>
+  </si>
+  <si>
+    <t>NV2.7355-NVE20303</t>
+  </si>
+  <si>
+    <t>ATP binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA  </t>
+  </si>
+  <si>
+    <t>NV2.12412-NVE11830,NVE11831</t>
+  </si>
+  <si>
+    <t>Homeodomain;brain-specific homeobox protein, putative [Pediculus humanus corporis]</t>
+  </si>
+  <si>
+    <t>NV2.1296-NVE13078</t>
+  </si>
+  <si>
+    <t>purine-rich negative regulatory element binding;ETS-related transcription factor Elf-1 isoform 2 [Mus musculus]</t>
+  </si>
+  <si>
+    <t>SRY (sex determining region Y)-box 30;Transcription factor SOX-30;</t>
+  </si>
+  <si>
+    <t>NV2.23367-NVE12125</t>
+  </si>
+  <si>
+    <t>to Saccharomyces cerevisiae HHO1 (YPL127C);Histone H1-delta;</t>
+  </si>
+  <si>
+    <t>CBFB_NFYA</t>
+  </si>
+  <si>
+    <t>NV2.18428-NVE2053</t>
+  </si>
+  <si>
+    <t>Coagulation factor 5/8 C-terminal domain, discoidin domain;Fibropellin-1 [Crassostrea gigas]</t>
+  </si>
+  <si>
+    <t>NV2.3689-NVE2842,NVE2843,NVE2844,NVE2847,NVE2848,NVE2849,NVE2850,NVE2851</t>
+  </si>
+  <si>
+    <t>cell adhesion;Hemicentin-1 [Crassostrea gigas]</t>
+  </si>
+  <si>
+    <t>Note: a yellow filled box indicate absent (or almost absent) expression of respective gene in either library</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -332,12 +692,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF404040"/>
-      <name val="Lucida Console"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -357,19 +711,87 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -378,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -387,7 +809,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,43 +1145,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC553F40-55FE-AA4F-ACF5-0A04AD99C7B2}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="55.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="50.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="21.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="55.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="50.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -749,113 +1197,301 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BFA363-7E5A-FD4E-9813-D56B3A710589}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.1640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="20"/>
+    <col min="11" max="13" width="26.33203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="75.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="P2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="9">
+        <v>7.95</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2.67</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="K3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="L3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" s="11">
+        <v>-3.63</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="P3" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>-2.02</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.72</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="G4" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="11">
+        <v>-1.88</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+      <c r="G5" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="13">
+        <v>-1.45</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="11">
+        <v>-1.74</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+      <c r="G6" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="13">
+        <v>-4.53</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="11">
+        <v>-8</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+      <c r="G7" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="13">
+        <v>-4.9400000000000004</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+      <c r="C8" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="11">
+        <v>-5.01</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+      <c r="C9" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="11">
+        <v>-7.32</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+      <c r="C10" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="11">
+        <v>-5.97</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
         <v>21</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="11">
+        <v>-4.29</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -864,6 +1500,1021 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC0C931-0664-644B-8266-38BF824BC97C}">
+  <dimension ref="A1:R18"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="42.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="92" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.1640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="53.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="23">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="9">
+        <v>3.16</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="9">
+        <v>3</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3.38</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="9">
+        <v>2.35</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2.23</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="9">
+        <v>2.35</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M5" s="12">
+        <v>-1.67</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2.39</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1.52</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M6" s="12">
+        <v>-2.02</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="12">
+        <v>-2.61</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M7" s="12">
+        <v>-2.58</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="11">
+        <v>-1.56</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="12">
+        <v>-5.62</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="11">
+        <v>-1.67</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="11">
+        <v>-2.04</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="11">
+        <v>-2.06</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="11">
+        <v>-2.0099999999999998</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="11">
+        <v>-1.55</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="11">
+        <v>-2.99</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="11">
+        <v>-1.5</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E611578B-F1BE-0144-9E57-29C8B8D70A4E}">
+  <dimension ref="A1:R27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="86.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="76.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2.35</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2.67</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="M3" s="9">
+        <v>3.16</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>-2.38</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="13">
+        <v>-7.07</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="M4" s="13">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.66</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" s="13">
+        <v>-1.73</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="M5" s="13">
+        <v>-2.17</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="13">
+        <v>-1.77</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M6" s="13">
+        <v>-2.23</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.62</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="18"/>
+      <c r="K7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" s="13">
+        <v>-1.65</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8.84</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2.97</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2.34</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="11">
+        <v>-1.43</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="11">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="11">
+        <v>-2.25</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="11">
+        <v>-2.52</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="11">
+        <v>-3.74</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="11">
+        <v>-1.54</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="11">
+        <v>-2.23</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="11">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="11">
+        <v>-1.99</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="11">
+        <v>-2.9</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="11">
+        <v>-1.92</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="11">
+        <v>-4.05</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="11">
+        <v>-2.34</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="11">
+        <v>-2.16</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD15EDA2-C32A-2A45-B9A6-A4031D4E7E95}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -972,372 +2623,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC0C931-0664-644B-8266-38BF824BC97C}">
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E611578B-F1BE-0144-9E57-29C8B8D70A4E}">
-  <dimension ref="A1:F27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A5C3B3-F1D9-234D-AC92-4A2E282626C3}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>

--- a/Data_out/DGE_summary_table.xlsx
+++ b/Data_out/DGE_summary_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chriskreitzer/Documents/GitHub/Twist/Data_out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B38251-E32B-944C-8548-826429115C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9677718-EFA1-2546-BD5F-04DEF304CB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1440" windowWidth="28860" windowHeight="18600" activeTab="3" xr2:uid="{6BF150CC-AA25-6648-80A9-940775FAFEA5}"/>
+    <workbookView xWindow="-30220" yWindow="3500" windowWidth="28860" windowHeight="18600" activeTab="4" xr2:uid="{6BF150CC-AA25-6648-80A9-940775FAFEA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary_Table" sheetId="6" r:id="rId1"/>
@@ -1200,17 +1200,17 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="28.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.1640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="13" style="5" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="15" bestFit="1" customWidth="1"/>
@@ -1503,7 +1503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC0C931-0664-644B-8266-38BF824BC97C}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -1940,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E611578B-F1BE-0144-9E57-29C8B8D70A4E}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2518,14 +2518,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD15EDA2-C32A-2A45-B9A6-A4031D4E7E95}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>

--- a/Data_out/DGE_summary_table.xlsx
+++ b/Data_out/DGE_summary_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chriskreitzer/Documents/GitHub/Twist/Data_out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9677718-EFA1-2546-BD5F-04DEF304CB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D86486D-9C80-7C44-9435-58F95AB1EE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30220" yWindow="3500" windowWidth="28860" windowHeight="18600" activeTab="4" xr2:uid="{6BF150CC-AA25-6648-80A9-940775FAFEA5}"/>
+    <workbookView xWindow="4060" yWindow="1080" windowWidth="28860" windowHeight="18600" activeTab="3" xr2:uid="{6BF150CC-AA25-6648-80A9-940775FAFEA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary_Table" sheetId="6" r:id="rId1"/>
@@ -1199,7 +1199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BFA363-7E5A-FD4E-9813-D56B3A710589}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1940,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E611578B-F1BE-0144-9E57-29C8B8D70A4E}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2518,7 +2518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD15EDA2-C32A-2A45-B9A6-A4031D4E7E95}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>

--- a/Data_out/DGE_summary_table.xlsx
+++ b/Data_out/DGE_summary_table.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chriskreitzer/Documents/GitHub/Twist/Data_out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D86486D-9C80-7C44-9435-58F95AB1EE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EF44AC-74BC-9143-916A-7F7E7DA257E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="1080" windowWidth="28860" windowHeight="18600" activeTab="3" xr2:uid="{6BF150CC-AA25-6648-80A9-940775FAFEA5}"/>
+    <workbookView xWindow="-35240" yWindow="3580" windowWidth="32680" windowHeight="18600" activeTab="1" xr2:uid="{6BF150CC-AA25-6648-80A9-940775FAFEA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary_Table" sheetId="6" r:id="rId1"/>
-    <sheet name="TwiHead_WTHead" sheetId="1" r:id="rId2"/>
-    <sheet name="Bubble_TwiHead" sheetId="3" r:id="rId3"/>
-    <sheet name="Bubble_WTHead" sheetId="4" r:id="rId4"/>
-    <sheet name="Twi4d_WT4d" sheetId="2" r:id="rId5"/>
-    <sheet name="TwistMutants_WT" sheetId="5" r:id="rId6"/>
+    <sheet name="Summary" sheetId="7" r:id="rId2"/>
+    <sheet name="TwiHead_WTHead" sheetId="1" r:id="rId3"/>
+    <sheet name="Bubble_TwiHead" sheetId="3" r:id="rId4"/>
+    <sheet name="Bubble_WTHead" sheetId="4" r:id="rId5"/>
+    <sheet name="Twi4d_WT4d" sheetId="2" r:id="rId6"/>
+    <sheet name="TwistMutants_WT" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="225">
   <si>
     <t>TwiHead VS Wthead</t>
   </si>
@@ -657,13 +658,70 @@
   </si>
   <si>
     <t>Note: a yellow filled box indicate absent (or almost absent) expression of respective gene in either library</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Phenotype</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>TwistHead_upregulation</t>
+  </si>
+  <si>
+    <t>Transcription Factor</t>
+  </si>
+  <si>
+    <t>NOTCH pathway</t>
+  </si>
+  <si>
+    <t>TwistHead_depletion</t>
+  </si>
+  <si>
+    <t>WNT pathway</t>
+  </si>
+  <si>
+    <t>muscle_specific</t>
+  </si>
+  <si>
+    <t>nematocyte_markers</t>
+  </si>
+  <si>
+    <t>NvNcol3</t>
+  </si>
+  <si>
+    <t>comparison to WTHead</t>
+  </si>
+  <si>
+    <t>Bubble_upregulation</t>
+  </si>
+  <si>
+    <t>Bubble_depleted</t>
+  </si>
+  <si>
+    <t>mematocyte_markers</t>
+  </si>
+  <si>
+    <t>comparison to TwiHead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -753,8 +811,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,8 +830,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -796,11 +901,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -831,6 +991,42 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1196,11 +1392,1739 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C3C25D-2BEA-FB40-A60F-68AC89CFDD9B}">
+  <dimension ref="A1:G85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="98.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="5">
+        <v>7.95</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1.72</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="58"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2.67</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="58"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="58"/>
+    </row>
+    <row r="6" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="36">
+        <v>-1.88</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" s="58"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="11">
+        <v>-1.74</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="58"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="11">
+        <v>-8</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="58"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="11">
+        <v>-5.01</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="58"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="11">
+        <v>-7.32</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="58"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="11">
+        <v>-5.97</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="58"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-4.29</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="58"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-1.45</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="58"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-4.53</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="58"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="11">
+        <v>-4.9400000000000004</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="58"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-3.63</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" s="58"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" s="11">
+        <v>-2.02</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="58"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="58"/>
+    </row>
+    <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="G19" s="59"/>
+    </row>
+    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="39">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3.38</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="58"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2.23</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="58"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2.39</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="58"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="58"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3.16</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="58"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="58"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2.35</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="58"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1.52</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="58"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="5">
+        <v>3</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="58"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2.35</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="58"/>
+    </row>
+    <row r="32" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="37">
+        <v>2.6</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="58"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="11">
+        <v>-1.56</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="58"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="11">
+        <v>-1.67</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="58"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="11">
+        <v>-2.04</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="58"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="11">
+        <v>-2.06</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="58"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="11">
+        <v>-2.0099999999999998</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="58"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="11">
+        <v>-1.55</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="58"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="11">
+        <v>-2.99</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="58"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="11">
+        <v>-1.5</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="58"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="11">
+        <v>-2.61</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="58"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="11">
+        <v>-5.62</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="58"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="11">
+        <v>-1.67</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" s="58"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="11">
+        <v>-2.02</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44" s="58"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="11">
+        <v>-2.58</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="G45" s="58"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="31">
+        <v>1.95</v>
+      </c>
+      <c r="G46" s="58"/>
+    </row>
+    <row r="47" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47" s="11">
+        <v>-0.53</v>
+      </c>
+      <c r="G47" s="59"/>
+    </row>
+    <row r="48" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2.35</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="G49" s="57" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="5">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" s="58"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1.66</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51" s="58"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G52" s="58"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1.62</v>
+      </c>
+      <c r="F53" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="G53" s="58"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" s="5">
+        <v>8.84</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" s="58"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E55" s="5">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G55" s="58"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E56" s="5">
+        <v>2.97</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" s="58"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="G57" s="58"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="5">
+        <v>2.34</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G58" s="58"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G59" s="58"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E60" s="5">
+        <v>2.67</v>
+      </c>
+      <c r="F60" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="G60" s="58"/>
+    </row>
+    <row r="61" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B61" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="E61" s="37">
+        <v>3.16</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" s="58"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="E62" s="11">
+        <v>-1.43</v>
+      </c>
+      <c r="F62" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="G62" s="58"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="E63" s="11">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="F63" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G63" s="58"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B64" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="E64" s="11">
+        <v>-2.25</v>
+      </c>
+      <c r="F64" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="G64" s="58"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="E65" s="11">
+        <v>-2.52</v>
+      </c>
+      <c r="F65" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="G65" s="58"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B66" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="E66" s="11">
+        <v>-3.74</v>
+      </c>
+      <c r="F66" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="G66" s="58"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E67" s="11">
+        <v>-1.54</v>
+      </c>
+      <c r="F67" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="G67" s="58"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E68" s="11">
+        <v>-2.23</v>
+      </c>
+      <c r="F68" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="G68" s="58"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69" s="11">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="F69" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="G69" s="58"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="E70" s="11">
+        <v>-1.99</v>
+      </c>
+      <c r="F70" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="G70" s="58"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E71" s="11">
+        <v>-2.9</v>
+      </c>
+      <c r="F71" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="G71" s="58"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E72" s="11">
+        <v>-1.92</v>
+      </c>
+      <c r="F72" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G72" s="58"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B73" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73" s="11">
+        <v>-4.05</v>
+      </c>
+      <c r="F73" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="G73" s="58"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="E74" s="11">
+        <v>-2.34</v>
+      </c>
+      <c r="F74" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="G74" s="58"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="E75" s="11">
+        <v>-2.16</v>
+      </c>
+      <c r="F75" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="G75" s="58"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76" s="11">
+        <v>-7.07</v>
+      </c>
+      <c r="F76" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="G76" s="58"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B77" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="E77" s="11">
+        <v>-1.73</v>
+      </c>
+      <c r="F77" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G77" s="58"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B78" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E78" s="11">
+        <v>-1.77</v>
+      </c>
+      <c r="F78" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="G78" s="58"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B79" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="E79" s="11">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="F79" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="G79" s="58"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B80" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E80" s="11">
+        <v>-2.17</v>
+      </c>
+      <c r="F80" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="G80" s="58"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B81" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81" s="11">
+        <v>-2.23</v>
+      </c>
+      <c r="F81" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G81" s="58"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B82" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E82" s="11">
+        <v>-1.65</v>
+      </c>
+      <c r="F82" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="G82" s="58"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B83" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="E83" s="11">
+        <v>-2.38</v>
+      </c>
+      <c r="F83" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="G83" s="58"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="B84" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E84" s="31">
+        <v>1.8</v>
+      </c>
+      <c r="G84" s="58"/>
+    </row>
+    <row r="85" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="E85" s="11">
+        <v>-0.41</v>
+      </c>
+      <c r="G85" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="G21:G47"/>
+    <mergeCell ref="G49:G85"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BFA363-7E5A-FD4E-9813-D56B3A710589}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1499,12 +3423,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC0C931-0664-644B-8266-38BF824BC97C}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1931,17 +3855,22 @@
       <c r="N18" s="26"/>
       <c r="O18" s="22"/>
     </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E611578B-F1BE-0144-9E57-29C8B8D70A4E}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G3"/>
+    <sheetView topLeftCell="M1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1950,7 +3879,7 @@
     <col min="2" max="2" width="21.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="86.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
@@ -2514,7 +4443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD15EDA2-C32A-2A45-B9A6-A4031D4E7E95}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -2623,7 +4552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A5C3B3-F1D9-234D-AC92-4A2E282626C3}">
   <dimension ref="A1:F11"/>
   <sheetViews>
